--- a/trend_results/Rivers/MangateraatusTDCOxPonds_aea113d846.xlsx
+++ b/trend_results/Rivers/MangateraatusTDCOxPonds_aea113d846.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.163564811617577</v>
+        <v>0.836435188382423</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.564966996556209</v>
+        <v>0.435033003443791</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.305798081520656</v>
+        <v>0.694201918479344</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.972049537517666</v>
+        <v>0.027950462482334</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2903,6 +2903,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Visual Clarity</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>2.24733870559657e-05</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0151515151515152</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.628787878787879</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.331</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-0.086760238117146</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-0.125271289607968</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.0498873610035726</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-6.5184251027157</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.904535214081211</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.84472049689441</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0232643312101912</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0101954571575158</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.0473633096219947</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.230112079230378</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Very likely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>1</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0008987452526312</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.478527607361963</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0008819217128399</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.0004276932084309</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.0012482911825017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.696003293923</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0004120976323791</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0061349693251533</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.742331288343558</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>620</v>
+      </c>
+      <c r="K31" t="n">
+        <v>26.0144598470363</v>
+      </c>
+      <c r="L31" t="n">
+        <v>14.8913118939421</v>
+      </c>
+      <c r="M31" t="n">
+        <v>41.4044940181942</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.19588062048973</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0.7625881900164651</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.433962264150943</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.559748427672956</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.0131516502174333</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.0580645161290323</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.148387096774194</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0001429549902152</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.0001154796762173</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.367891278002343</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0451612903225806</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.8967741935483871</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5545</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0023413461538461</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0053807180810521</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.0079313322808262</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.42224457237983</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.961972423906039</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.533742331288344</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0128518648838845</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.0234655322573936</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.166474933729074</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Extremely likely increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.370867761706905</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0184049079754601</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.895705521472393</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0015563648128274</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0068124693160954</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0072179155285478</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.260697623589192</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.780825052357788</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.711656441717791</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0035332415071345</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0113842316764062</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0039549738825795</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.401504716719832</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>1</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0092045512771532</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.582822085889571</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0014908163265306</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0003367052778835</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0025005705157462</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.79616424883206</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.956764242308363</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.871165644171779</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0531655397330371</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.12759840973415</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0001734097784629</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-2.02150341190255</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Extremely likely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1863911.8</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5542684.5</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Weber - Tamaki</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Mana_2b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangateraatusTDCOxPonds_aea113d846.xlsx
+++ b/trend_results/Rivers/MangateraatusTDCOxPonds_aea113d846.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.389817087979175</v>
+        <v>0.109091077736099</v>
       </c>
       <c r="G2" t="n">
-        <v>0.025</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9</v>
+        <v>0.911764705882353</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0110433930571109</v>
+        <v>-0.0853234501347709</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.181449832797462</v>
+        <v>-0.214821037894236</v>
       </c>
       <c r="M2" t="n">
-        <v>0.133326107215782</v>
+        <v>0.0365232074681253</v>
       </c>
       <c r="N2" t="n">
-        <v>-1.39789785533049</v>
+        <v>-13.331789083558</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.836435188382423</v>
+        <v>0.469957046613374</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.929824561403509</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.28</v>
+        <v>10.37</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0526802884615382</v>
+        <v>-0.0050279599432824</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0495744903220639</v>
+        <v>-0.104368238743904</v>
       </c>
       <c r="M3" t="n">
-        <v>0.155879570178565</v>
+        <v>0.0792605900347719</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5124541679137961</v>
+        <v>-0.048485631082762</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.114363761578591</v>
+        <v>0.919250694970164</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.779661016949153</v>
+        <v>0.745762711864407</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.056</v>
+        <v>0.047</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0028204633204633</v>
+        <v>-0.0030953389830508</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0007528761425582</v>
+        <v>-0.0074669285679011</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0065600753016937</v>
+        <v>0.0003818085139585</v>
       </c>
       <c r="N4" t="n">
-        <v>5.0365416436845</v>
+        <v>-6.58582762351244</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.552040985110551</v>
+        <v>0.66223876949003</v>
       </c>
       <c r="G5" t="n">
         <v>0.0169491525423729</v>
       </c>
       <c r="H5" t="n">
-        <v>0.830508474576271</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="K5" t="n">
-        <v>-6.17497886728656</v>
+        <v>-24.6175824175824</v>
       </c>
       <c r="L5" t="n">
-        <v>-131.638414325398</v>
+        <v>-127.007446613794</v>
       </c>
       <c r="M5" t="n">
-        <v>91.88533829084299</v>
+        <v>71.29122858097909</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.762343070035378</v>
+        <v>-3.1161496731117</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.889973009537222</v>
+        <v>0.347814288814645</v>
       </c>
       <c r="G6" t="n">
         <v>0.4</v>
@@ -949,16 +949,16 @@
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0134527870286018</v>
+        <v>0.0136083118087842</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0023283546703711</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.0005014614561867</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,13 +1028,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.976928461406661</v>
+        <v>0.949316992774637</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.271186440677966</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1043,16 +1043,16 @@
         <v>0.008</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.000664695177434</v>
+        <v>-0.0004969387755102</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.001003434065934</v>
+        <v>-0.0009845013477087999</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-8.30868971792539</v>
+        <v>-6.21173469387755</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.306715686477583</v>
+        <v>0.0009570144827488999</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>0.589</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0087442111459968</v>
+        <v>0.0740457520959036</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0172096011430828</v>
+        <v>0.026797807269263</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0435494255108575</v>
+        <v>0.133853970459555</v>
       </c>
       <c r="N8" t="n">
-        <v>1.48458593310643</v>
+        <v>12.5714349908156</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,31 +1210,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.435033003443791</v>
+        <v>0.140206412403405</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.728813559322034</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.73</v>
+        <v>7.72</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0034103641456581</v>
+        <v>-0.0269889162561575</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0359617460843411</v>
+        <v>-0.0640357411385163</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0324487415984838</v>
+        <v>0.0126587667858808</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0441185529839352</v>
+        <v>-0.349597360831055</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,7 +1297,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.174072312476531</v>
+        <v>0.0004366640811595</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6</v>
+        <v>0.628</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0134770751569859</v>
+        <v>0.07063571587713489</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0197552492907526</v>
+        <v>0.0314486171599022</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0581326413228643</v>
+        <v>0.129295380202775</v>
       </c>
       <c r="N10" t="n">
-        <v>2.24617919283098</v>
+        <v>11.2477254581425</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,14 +1373,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.796047874880417</v>
+        <v>0.0045954753079115</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.457627118644068</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>0.91</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.334478021978022</v>
+        <v>0.0758487501749842</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.32097649186257</v>
+        <v>0.0318148149474993</v>
       </c>
       <c r="M11" t="n">
-        <v>0.347650378848809</v>
+        <v>0.126041628460622</v>
       </c>
       <c r="N11" t="n">
-        <v>-6.68956043956044</v>
+        <v>8.335027491756509</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.442467978937887</v>
+        <v>0.739255724619832</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.864406779661017</v>
+        <v>0.830508474576271</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.089</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0125696278511405</v>
+        <v>-0.0028988095238095</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0455827564266897</v>
+        <v>-0.008713182926296</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0517741078422813</v>
+        <v>0.003225205478833</v>
       </c>
       <c r="N12" t="n">
-        <v>1.5518059075482</v>
+        <v>-3.25708935259497</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1566,35 +1566,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.130240057982724</v>
+        <v>0.497390973292217</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.796610169491525</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.101</v>
+        <v>2.37</v>
       </c>
       <c r="K13" t="n">
-        <v>0.003283966033966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0020211281146392</v>
+        <v>-0.329087291362362</v>
       </c>
       <c r="M13" t="n">
-        <v>0.010249362244898</v>
+        <v>0.370383124547848</v>
       </c>
       <c r="N13" t="n">
-        <v>3.25145151877825</v>
+        <v>0</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.921111792454269</v>
+        <v>0.0002754245584379</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.010989010989011</v>
       </c>
       <c r="H14" t="n">
-        <v>0.966101694915254</v>
+        <v>0.78021978021978</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.34</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.289880952380952</v>
+        <v>-0.108698411113647</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.780334269571428</v>
+        <v>-0.168166319435393</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0258891794577211</v>
+        <v>-0.0573066395043402</v>
       </c>
       <c r="N14" t="n">
-        <v>-12.3880748880749</v>
+        <v>-10.8698411113647</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.000505760066412</v>
+        <v>0.645809812468232</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0104166666666667</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.760416666666667</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.12</v>
+        <v>9.92</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0848838004101162</v>
+        <v>0.007996715927750199</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.146412209032582</v>
+        <v>-0.0261589251965769</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0401292929337897</v>
+        <v>0.0335635701154613</v>
       </c>
       <c r="N15" t="n">
-        <v>-7.57891075090323</v>
+        <v>0.08061205572328869</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.694201918479344</v>
+        <v>0.215422044861348</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.854700854700855</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.14</v>
+        <v>0.05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0128307962529274</v>
+        <v>0.000332347588717</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0344619008862375</v>
+        <v>-0.0003342863965223</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0486691259947805</v>
+        <v>0.0009938775510204001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.126536452198495</v>
+        <v>0.6646951774340319</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1930,35 +1930,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.0029241459194247</v>
+        <v>0.5</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5630252100840339</v>
+        <v>0.73109243697479</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.055</v>
+        <v>714</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004993164730006</v>
+        <v>-19.7089433218714</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0021162885552549</v>
+        <v>29.9072144509595</v>
       </c>
       <c r="N17" t="n">
-        <v>1.82442557442558</v>
+        <v>0</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2021,35 +2021,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.147832700613702</v>
+        <v>0.005798550940651</v>
       </c>
       <c r="G18" t="n">
-        <v>0.008403361344537799</v>
+        <v>0.460869565217391</v>
       </c>
       <c r="H18" t="n">
-        <v>0.714285714285714</v>
+        <v>0.530434782608696</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>714</v>
+        <v>0.0111862128875431</v>
       </c>
       <c r="K18" t="n">
-        <v>17.5600961538462</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-7.21467512368642</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>43.9013839022304</v>
+        <v>0.0006326483925392</v>
       </c>
       <c r="N18" t="n">
-        <v>2.45939722042663</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0051862978041262</v>
+        <v>0.872863425313534</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5043478260869561</v>
+        <v>0.0336134453781513</v>
       </c>
       <c r="H19" t="n">
-        <v>0.48695652173913</v>
+        <v>0.168067226890756</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0053310001571265</v>
+        <v>0.008</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.000142175943947</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003871466370861</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000153358946616</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.77719929933826</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.542154705188314</v>
+        <v>0.0221598747151027</v>
       </c>
       <c r="G20" t="n">
         <v>0.0336134453781513</v>
       </c>
       <c r="H20" t="n">
-        <v>0.176470588235294</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.008</v>
+        <v>0.622</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.0153466386554622</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0001999178981937</v>
+        <v>0.0036035997421483</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0002496582365003</v>
+        <v>0.0244660675993445</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2.46730525007431</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,14 +2283,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2298,31 +2298,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0280486332513279</v>
+        <v>0.051427539478871</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0588235294117647</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.890756302521008</v>
+        <v>0.521008403361345</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5545</v>
+        <v>7.73</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0104854081632653</v>
+        <v>-0.0115631183221211</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0023500573367223</v>
+        <v>-0.0247664417844399</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0198540651566437</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1.89096630536796</v>
+        <v>-0.14958755914775</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,7 +2370,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.027950462482334</v>
+        <v>0.0075370489786728</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H22" t="n">
-        <v>0.504201680672269</v>
+        <v>0.882352941176471</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.75</v>
+        <v>0.659</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0128659491193738</v>
+        <v>0.0179141689373297</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0255400456804059</v>
+        <v>0.005524465177394</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0014525032497317</v>
+        <v>0.0288673792069953</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.166012246701597</v>
+        <v>2.71838678866915</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0170699085342164</v>
+        <v>0.147832700613702</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0252100840336134</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.873949579831933</v>
+        <v>0.789915966386555</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.597</v>
+        <v>0.98</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0112542016806723</v>
+        <v>0.0075257554945055</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0029540191717225</v>
+        <v>-0.0079717208057605</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0220007507427433</v>
+        <v>0.0223450691404417</v>
       </c>
       <c r="N23" t="n">
-        <v>1.88512590966035</v>
+        <v>0.767934234133214</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -2563,35 +2563,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.213063343908591</v>
+        <v>0.357267995160151</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0420168067226891</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.327731092436975</v>
+        <v>0.663865546218487</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>5</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.0003334094020994</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0008328007046736</v>
       </c>
       <c r="M24" t="n">
-        <v>0.332297437035238</v>
+        <v>0.0021194978025351</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.387685351278486</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.179999992430394</v>
+        <v>0.248477405362459</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8067226890756301</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.869</v>
+        <v>2.71</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0066895604395604</v>
+        <v>0.0411936090225564</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0085006494775768</v>
+        <v>-0.0517357135846876</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0200483858030429</v>
+        <v>0.148089236604993</v>
       </c>
       <c r="N25" t="n">
-        <v>0.769799820432733</v>
+        <v>1.52005937352607</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.0234628305079226</v>
+        <v>4.8774738803381e-07</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0144927536231884</v>
       </c>
       <c r="H26" t="n">
-        <v>0.680672268907563</v>
+        <v>0.623188405797101</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>0.08799999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0022149787750151</v>
+        <v>-0.0990023013978861</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002517510681545</v>
+        <v>-0.125019549452967</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0036533683263179</v>
+        <v>-0.0634843673463989</v>
       </c>
       <c r="N26" t="n">
-        <v>2.5170213352445</v>
+        <v>-7.61556164599124</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5725805628887</v>
+        <v>0.844152968951518</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.882352941176471</v>
+        <v>0.820809248554913</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.37</v>
+        <v>10.11</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.008308689717925401</v>
+        <v>0.0183375171154723</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0683483820546779</v>
+        <v>-0.0113966476761876</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0893371437170964</v>
+        <v>0.0349034099806869</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.350577625228921</v>
+        <v>0.181379991250962</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.24733870559657e-05</v>
+        <v>0.0274088915817141</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0151515151515152</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.628787878787879</v>
+        <v>0.451428571428571</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.331</v>
+        <v>0.048</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.086760238117146</v>
+        <v>0.0005001141031492</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.125271289607968</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0498873610035726</v>
+        <v>0.0009930838958957999</v>
       </c>
       <c r="N28" t="n">
-        <v>-6.5184251027157</v>
+        <v>1.04190438156093</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.904535214081211</v>
+        <v>0.0023845347288166</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0057142857142857</v>
       </c>
       <c r="H29" t="n">
-        <v>0.84472049689441</v>
+        <v>0.754285714285714</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.11</v>
+        <v>620</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0232643312101912</v>
+        <v>21.5911330049261</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0101954571575158</v>
+        <v>8.29202366172953</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0473633096219947</v>
+        <v>37.0305324570987</v>
       </c>
       <c r="N29" t="n">
-        <v>0.230112079230378</v>
+        <v>3.48244080724615</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0008987452526312</v>
+        <v>0.705339468770363</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.421052631578947</v>
       </c>
       <c r="H30" t="n">
-        <v>0.478527607361963</v>
+        <v>0.573099415204678</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.052</v>
+        <v>0.0134527870286018</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0008819217128399</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0004276932084309</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0012482911825017</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1.696003293923</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3200,35 +3200,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.0004120976323791</v>
+        <v>0.532172741821226</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0061349693251533</v>
+        <v>0.0538922155688623</v>
       </c>
       <c r="H31" t="n">
-        <v>0.742331288343558</v>
+        <v>0.137724550898204</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>620</v>
+        <v>0.008</v>
       </c>
       <c r="K31" t="n">
-        <v>26.0144598470363</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>14.8913118939421</v>
+        <v>-0.0001122948915753</v>
       </c>
       <c r="M31" t="n">
-        <v>41.4044940181942</v>
+        <v>9.97824655184984e-05</v>
       </c>
       <c r="N31" t="n">
-        <v>4.19588062048973</v>
+        <v>0</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3291,35 +3291,35 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.7625881900164651</v>
+        <v>0.0347074166963293</v>
       </c>
       <c r="G32" t="n">
-        <v>0.433962264150943</v>
+        <v>0.0419161676646707</v>
       </c>
       <c r="H32" t="n">
-        <v>0.559748427672956</v>
+        <v>0.892215568862275</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0131516502174333</v>
+        <v>0.589</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0069752756491868</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0012346638255996</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0155520750072114</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.18425732583818</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,46 +3371,46 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5</v>
+        <v>0.8185580820844069</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0580645161290323</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.148387096774194</v>
+        <v>0.531428571428571</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.008</v>
+        <v>7.72</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0062865748709122</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0001429549902152</v>
+        <v>-0.0049931647300069</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0001154796762173</v>
+        <v>0.0163058035714287</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.08143231698072891</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.367891278002343</v>
+        <v>0.0424056614967442</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0451612903225806</v>
+        <v>0.0171428571428571</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8967741935483871</v>
+        <v>0.885714285714286</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0.5545</v>
+        <v>0.61</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0023413461538461</v>
+        <v>0.0061470645792563</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0053807180810521</v>
+        <v>0.000755420342526</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0079313322808262</v>
+        <v>0.0129785164789197</v>
       </c>
       <c r="N34" t="n">
-        <v>0.42224457237983</v>
+        <v>1.00771550479612</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3506,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,14 +3549,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3568,31 +3564,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.961972423906039</v>
+        <v>0.296292790265293</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.533742331288344</v>
+        <v>0.702857142857143</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.72</v>
+        <v>0.973</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0128518648838845</v>
+        <v>0.0033024412296564</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-0.0051980341992126</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0234655322573936</v>
+        <v>0.0116100106411294</v>
       </c>
       <c r="N35" t="n">
-        <v>0.166474933729074</v>
+        <v>0.339408142821832</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Mana_2b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,31 +3655,31 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.370867761706905</v>
+        <v>0.06478978848084579</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0184049079754601</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.895705521472393</v>
+        <v>0.548571428571429</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.597</v>
+        <v>0.082</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0015563648128274</v>
+        <v>0.0008167080745341</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0068124693160954</v>
+        <v>-6.01250297626415e-05</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0072179155285478</v>
+        <v>0.0017476076555023</v>
       </c>
       <c r="N36" t="n">
-        <v>0.260697623589192</v>
+        <v>0.995985456748978</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.780825052357788</v>
+        <v>0.8402803718170671</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.711656441717791</v>
+        <v>0.862857142857143</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.88</v>
+        <v>2.74</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0035332415071345</v>
+        <v>-0.0333409402099498</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0113842316764062</v>
+        <v>-0.0840367608926979</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0039549738825795</v>
+        <v>0.0200686813186813</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.401504716719832</v>
+        <v>-1.21682263539963</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3809,188 +3809,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>1</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0092045512771532</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.582822085889571</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.0014908163265306</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.0003367052778835</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.0025005705157462</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.79616424883206</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Exceptionally unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1863911.8</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5542684.5</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Weber - Tamaki</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Mana_2b</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Mangatera at u/s T.D.C. Ox Ponds</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.956764242308363</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.871165644171779</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.0531655397330371</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.12759840973415</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-0.0001734097784629</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.02150341190255</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Extremely likely improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1863911.8</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5542684.5</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Tararua District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Weber - Tamaki</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Mana_2b</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/MangateraatusTDCOxPonds_aea113d846.xlsx
+++ b/trend_results/Rivers/MangateraatusTDCOxPonds_aea113d846.xlsx
@@ -139,37 +139,37 @@
     <t>RepSite</t>
   </si>
   <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
     <t>Unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely increasing</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Tararua District</t>
@@ -648,31 +648,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.109091077736099</v>
+        <v>0.03453553450775</v>
       </c>
       <c r="G2">
-        <v>0.0294117647058824</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.911764705882353</v>
+        <v>0.964285714285714</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.64</v>
+        <v>0.3025</v>
       </c>
       <c r="K2">
-        <v>-0.0853234501347709</v>
+        <v>-0.100994987155701</v>
       </c>
       <c r="L2">
-        <v>-0.214821037894236</v>
+        <v>-0.289568622589163</v>
       </c>
       <c r="M2">
-        <v>0.0365232074681253</v>
+        <v>-0.0126022004428426</v>
       </c>
       <c r="N2">
-        <v>-13.331789083558</v>
+        <v>-33.386772613455</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -719,13 +719,13 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.469957046613374</v>
+        <v>0.640891935233007</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.912280701754386</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -734,16 +734,16 @@
         <v>10.37</v>
       </c>
       <c r="K3">
-        <v>-0.0050279599432824</v>
+        <v>0.0228667862476109</v>
       </c>
       <c r="L3">
-        <v>-0.104368238743904</v>
+        <v>-0.0655025731603648</v>
       </c>
       <c r="M3">
-        <v>0.0792605900347719</v>
+        <v>0.131921890278347</v>
       </c>
       <c r="N3">
-        <v>-0.048485631082762</v>
+        <v>0.220509028424406</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -790,7 +790,7 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.919250694970164</v>
+        <v>0.947662806032127</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -805,16 +805,16 @@
         <v>0.047</v>
       </c>
       <c r="K4">
-        <v>-0.0030953389830508</v>
+        <v>-0.0034215456674473</v>
       </c>
       <c r="L4">
-        <v>-0.0074669285679011</v>
+        <v>-0.0077026107356683</v>
       </c>
       <c r="M4">
-        <v>0.0003818085139585</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>-6.58582762351244</v>
+        <v>-7.27988439882406</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -861,31 +861,31 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.66223876949003</v>
+        <v>0.646431357479202</v>
       </c>
       <c r="G5">
-        <v>0.0169491525423729</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H5">
-        <v>0.88135593220339</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>790</v>
+        <v>874.6</v>
       </c>
       <c r="K5">
-        <v>-24.6175824175824</v>
+        <v>-19.2980025773196</v>
       </c>
       <c r="L5">
-        <v>-127.007446613794</v>
+        <v>-135.932399545696</v>
       </c>
       <c r="M5">
-        <v>71.29122858097909</v>
+        <v>70.3667148309527</v>
       </c>
       <c r="N5">
-        <v>-3.1161496731117</v>
+        <v>-2.20649469212435</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
@@ -926,25 +926,25 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>37</v>
       </c>
       <c r="F6">
-        <v>0.347814288814645</v>
+        <v>0.36689357761806</v>
       </c>
       <c r="G6">
-        <v>0.4</v>
+        <v>0.410714285714286</v>
       </c>
       <c r="H6">
-        <v>0.636363636363636</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0136083118087842</v>
+        <v>0.0140426008099206</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0005014614561867</v>
+        <v>0.0012682153271051</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1003,37 +1003,37 @@
         <v>36</v>
       </c>
       <c r="F7">
-        <v>0.949316992774637</v>
+        <v>0.985286699217193</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.254237288135593</v>
+        <v>0.23728813559322</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="K7">
-        <v>-0.0004969387755102</v>
+        <v>-0.0005884836335978</v>
       </c>
       <c r="L7">
-        <v>-0.0009845013477087999</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-6.21173469387755</v>
+        <v>-8.40690905139715</v>
       </c>
       <c r="O7" t="s">
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q7">
         <v>1863911.8</v>
@@ -1074,13 +1074,13 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.0009570144827488999</v>
+        <v>0.359108064766993</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.932203389830508</v>
+        <v>0.949152542372881</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1089,22 +1089,22 @@
         <v>0.589</v>
       </c>
       <c r="K8">
-        <v>0.0740457520959036</v>
+        <v>0.0107399813895782</v>
       </c>
       <c r="L8">
-        <v>0.026797807269263</v>
+        <v>-0.0282465444374049</v>
       </c>
       <c r="M8">
-        <v>0.133853970459555</v>
+        <v>0.0399753601029631</v>
       </c>
       <c r="N8">
-        <v>12.5714349908156</v>
+        <v>1.82342638193178</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q8">
         <v>1863911.8</v>
@@ -1142,40 +1142,40 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>0.140206412403405</v>
+        <v>0.476523115028951</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.779661016949153</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.72</v>
+        <v>7.73</v>
       </c>
       <c r="K9">
-        <v>-0.0269889162561575</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>-0.0640357411385163</v>
+        <v>-0.0401373626373633</v>
       </c>
       <c r="M9">
-        <v>0.0126587667858808</v>
+        <v>0.0339758670777428</v>
       </c>
       <c r="N9">
-        <v>-0.349597360831055</v>
+        <v>0</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q9">
         <v>1863911.8</v>
@@ -1213,7 +1213,7 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.0004366640811595</v>
+        <v>0.386126230518573</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1225,25 +1225,25 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.628</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="K10">
-        <v>0.07063571587713489</v>
+        <v>0.0074029261704681</v>
       </c>
       <c r="L10">
-        <v>0.0314486171599022</v>
+        <v>-0.0297635070274671</v>
       </c>
       <c r="M10">
-        <v>0.129295380202775</v>
+        <v>0.0416349583433983</v>
       </c>
       <c r="N10">
-        <v>11.2477254581425</v>
+        <v>1.31490695745439</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q10">
         <v>1863911.8</v>
@@ -1284,13 +1284,13 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.0045954753079115</v>
+        <v>0.359108064766993</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.864406779661017</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0.91</v>
       </c>
       <c r="K11">
-        <v>0.0758487501749842</v>
+        <v>0.0099865580847723</v>
       </c>
       <c r="L11">
-        <v>0.0318148149474993</v>
+        <v>-0.0275146743953434</v>
       </c>
       <c r="M11">
-        <v>0.126041628460622</v>
+        <v>0.0658808966749599</v>
       </c>
       <c r="N11">
-        <v>8.335027491756509</v>
+        <v>1.09742396535959</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>1863911.8</v>
@@ -1355,37 +1355,37 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.739255724619832</v>
+        <v>0.869715743458621</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.830508474576271</v>
+        <v>0.847457627118644</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.089</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="K12">
-        <v>-0.0028988095238095</v>
+        <v>-0.0040137362637362</v>
       </c>
       <c r="L12">
-        <v>-0.008713182926296</v>
+        <v>-0.009212879692597599</v>
       </c>
       <c r="M12">
-        <v>0.003225205478833</v>
+        <v>0.0018051623867587</v>
       </c>
       <c r="N12">
-        <v>-3.25708935259497</v>
+        <v>-4.56106393606394</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q12">
         <v>1863911.8</v>
@@ -1420,19 +1420,19 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>0.497390973292217</v>
+        <v>0.109935855314351</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.949152542372881</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1441,22 +1441,22 @@
         <v>2.37</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.225772664835165</v>
       </c>
       <c r="L13">
-        <v>-0.329087291362362</v>
+        <v>-0.14445316613401</v>
       </c>
       <c r="M13">
-        <v>0.370383124547848</v>
+        <v>0.909611389287866</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>9.526272777855061</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1863911.8</v>
@@ -1491,43 +1491,43 @@
         <v>10</v>
       </c>
       <c r="D14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.0002754245584379</v>
+        <v>4.26206936789963E-05</v>
       </c>
       <c r="G14">
-        <v>0.010989010989011</v>
+        <v>0.0117647058823529</v>
       </c>
       <c r="H14">
-        <v>0.78021978021978</v>
+        <v>0.8117647058823531</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K14">
-        <v>-0.108698411113647</v>
+        <v>-0.136069537346711</v>
       </c>
       <c r="L14">
-        <v>-0.168166319435393</v>
+        <v>-0.19093109088495</v>
       </c>
       <c r="M14">
-        <v>-0.0573066395043402</v>
+        <v>-0.07970299928325909</v>
       </c>
       <c r="N14">
-        <v>-10.8698411113647</v>
+        <v>-14.4754826964586</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1863911.8</v>
@@ -1568,37 +1568,37 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.645809812468232</v>
+        <v>0.8573893087184949</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.837606837606838</v>
+        <v>0.854700854700855</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.92</v>
+        <v>10.24</v>
       </c>
       <c r="K15">
-        <v>0.007996715927750199</v>
+        <v>0.0216716111364675</v>
       </c>
       <c r="L15">
-        <v>-0.0261589251965769</v>
+        <v>-0.0147677854900463</v>
       </c>
       <c r="M15">
-        <v>0.0335635701154613</v>
+        <v>0.0571772136782076</v>
       </c>
       <c r="N15">
-        <v>0.08061205572328869</v>
+        <v>0.211636827504565</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q15">
         <v>1863911.8</v>
@@ -1636,10 +1636,10 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16">
-        <v>0.215422044861348</v>
+        <v>0.603401437561649</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1651,25 +1651,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="K16">
-        <v>0.000332347588717</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.0003342863965223</v>
+        <v>-0.001003434065934</v>
       </c>
       <c r="M16">
-        <v>0.0009938775510204001</v>
+        <v>0.0004993164730006</v>
       </c>
       <c r="N16">
-        <v>0.6646951774340319</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q16">
         <v>1863911.8</v>
@@ -1707,40 +1707,40 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.326516391126082</v>
       </c>
       <c r="G17">
-        <v>0.008403361344537799</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H17">
-        <v>0.73109243697479</v>
+        <v>0.720338983050847</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.7571712752857</v>
       </c>
       <c r="L17">
-        <v>-19.7089433218714</v>
+        <v>-14.0197930988522</v>
       </c>
       <c r="M17">
-        <v>29.9072144509595</v>
+        <v>42.5105672533879</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.53236058052503</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>1863911.8</v>
@@ -1781,19 +1781,19 @@
         <v>37</v>
       </c>
       <c r="F18">
-        <v>0.005798550940651</v>
+        <v>0.235451643631644</v>
       </c>
       <c r="G18">
-        <v>0.460869565217391</v>
+        <v>0.426086956521739</v>
       </c>
       <c r="H18">
-        <v>0.530434782608696</v>
+        <v>0.565217391304348</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>0.0111862128875431</v>
+        <v>0.0130058776969743</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1802,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0006326483925392</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1811,7 +1811,7 @@
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1863911.8</v>
@@ -1852,37 +1852,37 @@
         <v>36</v>
       </c>
       <c r="F19">
-        <v>0.872863425313534</v>
+        <v>0.982217962349056</v>
       </c>
       <c r="G19">
         <v>0.0336134453781513</v>
       </c>
       <c r="H19">
-        <v>0.168067226890756</v>
+        <v>0.151260504201681</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="K19">
-        <v>-0.000142175943947</v>
+        <v>-0.0002496582365003</v>
       </c>
       <c r="L19">
-        <v>-0.0003871466370861</v>
+        <v>-0.0004568629508669</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-1.77719929933826</v>
+        <v>-3.56654623571916</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q19">
         <v>1863911.8</v>
@@ -1923,37 +1923,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.0221598747151027</v>
+        <v>0.31919313040914</v>
       </c>
       <c r="G20">
-        <v>0.0336134453781513</v>
+        <v>0.0252100840336134</v>
       </c>
       <c r="H20">
-        <v>0.899159663865546</v>
+        <v>0.890756302521008</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.622</v>
+        <v>0.589</v>
       </c>
       <c r="K20">
-        <v>0.0153466386554622</v>
+        <v>0.0047435064935064</v>
       </c>
       <c r="L20">
-        <v>0.0036035997421483</v>
+        <v>-0.0068329583020058</v>
       </c>
       <c r="M20">
-        <v>0.0244660675993445</v>
+        <v>0.0155936892432685</v>
       </c>
       <c r="N20">
-        <v>2.46730525007431</v>
+        <v>0.805349150001103</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q20">
         <v>1863911.8</v>
@@ -1994,7 +1994,7 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.051427539478871</v>
+        <v>0.114315310433252</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2006,25 +2006,25 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>7.73</v>
+        <v>7.74</v>
       </c>
       <c r="K21">
-        <v>-0.0115631183221211</v>
+        <v>-0.0088438256658593</v>
       </c>
       <c r="L21">
-        <v>-0.0247664417844399</v>
+        <v>-0.0206905661676048</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0029755848498271</v>
       </c>
       <c r="N21">
-        <v>-0.14958755914775</v>
+        <v>-0.114261313512395</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1863911.8</v>
@@ -2062,7 +2062,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.0075370489786728</v>
+        <v>0.265317840615893</v>
       </c>
       <c r="G22">
         <v>0.0252100840336134</v>
@@ -2074,25 +2074,25 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.659</v>
+        <v>0.61</v>
       </c>
       <c r="K22">
-        <v>0.0179141689373297</v>
+        <v>0.0054924812030075</v>
       </c>
       <c r="L22">
-        <v>0.005524465177394</v>
+        <v>-0.0080270029348735</v>
       </c>
       <c r="M22">
-        <v>0.0288673792069953</v>
+        <v>0.017883757239015</v>
       </c>
       <c r="N22">
-        <v>2.71838678866915</v>
+        <v>0.900406754591396</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q22">
         <v>1863911.8</v>
@@ -2133,37 +2133,37 @@
         <v>36</v>
       </c>
       <c r="F23">
-        <v>0.147832700613702</v>
+        <v>0.5828921560213129</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.789915966386555</v>
+        <v>0.722689075630252</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="K23">
-        <v>0.0075257554945055</v>
+        <v>-0.0024965823650034</v>
       </c>
       <c r="L23">
-        <v>-0.0079717208057605</v>
+        <v>-0.0133754569655072</v>
       </c>
       <c r="M23">
-        <v>0.0223450691404417</v>
+        <v>0.0109858603022334</v>
       </c>
       <c r="N23">
-        <v>0.767934234133214</v>
+        <v>-0.26006066302119</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q23">
         <v>1863911.8</v>
@@ -2204,31 +2204,31 @@
         <v>36</v>
       </c>
       <c r="F24">
-        <v>0.357267995160151</v>
+        <v>0.347517550887135</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.663865546218487</v>
+        <v>0.65546218487395</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08599999999999999</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="K24">
         <v>0.0003334094020994</v>
       </c>
       <c r="L24">
-        <v>-0.0008328007046736</v>
+        <v>-0.0013643533167338</v>
       </c>
       <c r="M24">
-        <v>0.0021194978025351</v>
+        <v>0.0021181907471571</v>
       </c>
       <c r="N24">
-        <v>0.387685351278486</v>
+        <v>0.378874320567612</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
@@ -2275,7 +2275,7 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.248477405362459</v>
+        <v>0.173466757951279</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2.71</v>
+        <v>2.37</v>
       </c>
       <c r="K25">
-        <v>0.0411936090225564</v>
+        <v>0.0576974587912088</v>
       </c>
       <c r="L25">
-        <v>-0.0517357135846876</v>
+        <v>-0.0456124756868397</v>
       </c>
       <c r="M25">
-        <v>0.148089236604993</v>
+        <v>0.166457859056826</v>
       </c>
       <c r="N25">
-        <v>1.52005937352607</v>
+        <v>2.43449193211851</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="Q25">
         <v>1863911.8</v>
@@ -2346,37 +2346,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>4.8774738803381E-07</v>
+        <v>9.2082279579131E-09</v>
       </c>
       <c r="G26">
-        <v>0.0144927536231884</v>
+        <v>0.0150375939849624</v>
       </c>
       <c r="H26">
-        <v>0.623188405797101</v>
+        <v>0.669172932330827</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K26">
-        <v>-0.0990023013978861</v>
+        <v>-0.106025967103259</v>
       </c>
       <c r="L26">
-        <v>-0.125019549452967</v>
+        <v>-0.13772456449506</v>
       </c>
       <c r="M26">
-        <v>-0.0634843673463989</v>
+        <v>-0.07459432653156881</v>
       </c>
       <c r="N26">
-        <v>-7.61556164599124</v>
+        <v>-8.83549725860493</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q26">
         <v>1863911.8</v>
@@ -2417,37 +2417,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.844152968951518</v>
+        <v>0.9651229489234689</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.820809248554913</v>
+        <v>0.8114285714285711</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.11</v>
+        <v>10.18</v>
       </c>
       <c r="K27">
-        <v>0.0183375171154723</v>
+        <v>0.027653167110609</v>
       </c>
       <c r="L27">
-        <v>-0.0113966476761876</v>
+        <v>0.0049853853558065</v>
       </c>
       <c r="M27">
-        <v>0.0349034099806869</v>
+        <v>0.049588070634968</v>
       </c>
       <c r="N27">
-        <v>0.181379991250962</v>
+        <v>0.271642113070815</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27">
         <v>1863911.8</v>
@@ -2488,37 +2488,37 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.0274088915817141</v>
+        <v>0.023882553624071</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.451428571428571</v>
+        <v>0.446327683615819</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="K28">
-        <v>0.0005001141031492</v>
+        <v>0.0004276932084309</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0009930838958957999</v>
+        <v>0.0008040047239521</v>
       </c>
       <c r="N28">
-        <v>1.04190438156093</v>
+        <v>0.9099855498530049</v>
       </c>
       <c r="O28" t="s">
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q28">
         <v>1863911.8</v>
@@ -2559,37 +2559,37 @@
         <v>36</v>
       </c>
       <c r="F29">
-        <v>0.0023845347288166</v>
+        <v>0.0058346750389328</v>
       </c>
       <c r="G29">
-        <v>0.0057142857142857</v>
+        <v>0.0056818181818181</v>
       </c>
       <c r="H29">
-        <v>0.754285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>620</v>
+        <v>639.5</v>
       </c>
       <c r="K29">
-        <v>21.5911330049261</v>
+        <v>20.4169606182652</v>
       </c>
       <c r="L29">
-        <v>8.29202366172953</v>
+        <v>5.68374058338907</v>
       </c>
       <c r="M29">
-        <v>37.0305324570987</v>
+        <v>35.7735881736929</v>
       </c>
       <c r="N29">
-        <v>3.48244080724615</v>
+        <v>3.19264435000238</v>
       </c>
       <c r="O29" t="s">
         <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q29">
         <v>1863911.8</v>
@@ -2630,19 +2630,19 @@
         <v>37</v>
       </c>
       <c r="F30">
-        <v>0.705339468770363</v>
+        <v>0.812749692044642</v>
       </c>
       <c r="G30">
-        <v>0.421052631578947</v>
+        <v>0.416184971098266</v>
       </c>
       <c r="H30">
-        <v>0.573099415204678</v>
+        <v>0.578034682080925</v>
       </c>
       <c r="I30">
         <v>2</v>
       </c>
       <c r="J30">
-        <v>0.0134527870286018</v>
+        <v>0.0136083118087842</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q30">
         <v>1863911.8</v>
@@ -2701,28 +2701,28 @@
         <v>39</v>
       </c>
       <c r="F31">
-        <v>0.532172741821226</v>
+        <v>0.718663114783163</v>
       </c>
       <c r="G31">
-        <v>0.0538922155688623</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H31">
-        <v>0.137724550898204</v>
+        <v>0.129943502824859</v>
       </c>
       <c r="I31">
         <v>3</v>
       </c>
       <c r="J31">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
-        <v>-0.0001122948915753</v>
+        <v>-0.0001429549902152</v>
       </c>
       <c r="M31">
-        <v>9.97824655184984E-05</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q31">
         <v>1863911.8</v>
@@ -2772,37 +2772,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.0347074166963293</v>
+        <v>0.31978565820765</v>
       </c>
       <c r="G32">
-        <v>0.0419161676646707</v>
+        <v>0.0395480225988701</v>
       </c>
       <c r="H32">
-        <v>0.892215568862275</v>
+        <v>0.8870056497175141</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.589</v>
+        <v>0.573</v>
       </c>
       <c r="K32">
-        <v>0.0069752756491868</v>
+        <v>0.0021355150890143</v>
       </c>
       <c r="L32">
-        <v>0.0012346638255996</v>
+        <v>-0.0040685934469864</v>
       </c>
       <c r="M32">
-        <v>0.0155520750072114</v>
+        <v>0.0074578709397875</v>
       </c>
       <c r="N32">
-        <v>1.18425732583818</v>
+        <v>0.372690242410878</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q32">
         <v>1863911.8</v>
@@ -2843,31 +2843,31 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.8185580820844069</v>
+        <v>0.229720661146359</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.531428571428571</v>
+        <v>0.502824858757062</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.72</v>
+        <v>7.74</v>
       </c>
       <c r="K33">
-        <v>0.0062865748709122</v>
+        <v>-0.0040500899419896</v>
       </c>
       <c r="L33">
-        <v>-0.0049931647300069</v>
+        <v>-0.0132145575861839</v>
       </c>
       <c r="M33">
-        <v>0.0163058035714287</v>
+        <v>0.0051698693097205</v>
       </c>
       <c r="N33">
-        <v>0.08143231698072891</v>
+        <v>-0.0523267434365582</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
@@ -2911,37 +2911,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>0.0424056614967442</v>
+        <v>0.357245258671961</v>
       </c>
       <c r="G34">
-        <v>0.0171428571428571</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="H34">
-        <v>0.885714285714286</v>
+        <v>0.8870056497175141</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34">
-        <v>0.61</v>
+        <v>0.599</v>
       </c>
       <c r="K34">
-        <v>0.0061470645792563</v>
+        <v>0.0015754780919544</v>
       </c>
       <c r="L34">
-        <v>0.000755420342526</v>
+        <v>-0.0057735243683352</v>
       </c>
       <c r="M34">
-        <v>0.0129785164789197</v>
+        <v>0.0073609286138463</v>
       </c>
       <c r="N34">
-        <v>1.00771550479612</v>
+        <v>0.263018045401417</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1863911.8</v>
@@ -2982,13 +2982,13 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>0.296292790265293</v>
+        <v>0.75429209160618</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.702857142857143</v>
+        <v>0.700564971751412</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0.973</v>
       </c>
       <c r="K35">
-        <v>0.0033024412296564</v>
+        <v>-0.0037448949807082</v>
       </c>
       <c r="L35">
-        <v>-0.0051980341992126</v>
+        <v>-0.0100745758699539</v>
       </c>
       <c r="M35">
-        <v>0.0116100106411294</v>
+        <v>0.0060773218938461</v>
       </c>
       <c r="N35">
-        <v>0.339408142821832</v>
+        <v>-0.38488129298132</v>
       </c>
       <c r="O35" t="s">
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="Q35">
         <v>1863911.8</v>
@@ -3053,37 +3053,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>0.06478978848084579</v>
+        <v>0.00566033180947</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.548571428571429</v>
+        <v>0.548022598870056</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.082</v>
+        <v>0.081</v>
       </c>
       <c r="K36">
-        <v>0.0008167080745341</v>
+        <v>0.0012639373390126</v>
       </c>
       <c r="L36">
-        <v>-6.01250297626415E-05</v>
+        <v>0.0003948449261867</v>
       </c>
       <c r="M36">
-        <v>0.0017476076555023</v>
+        <v>0.0020816732375329</v>
       </c>
       <c r="N36">
-        <v>0.995985456748978</v>
+        <v>1.56041646791683</v>
       </c>
       <c r="O36" t="s">
         <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q36">
         <v>1863911.8</v>
@@ -3124,37 +3124,37 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.8402803718170671</v>
+        <v>0.817908964133095</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.862857142857143</v>
+        <v>0.870056497175141</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2.74</v>
+        <v>2.73</v>
       </c>
       <c r="K37">
-        <v>-0.0333409402099498</v>
+        <v>-0.0242122548976583</v>
       </c>
       <c r="L37">
-        <v>-0.0840367608926979</v>
+        <v>-0.071350852099289</v>
       </c>
       <c r="M37">
-        <v>0.0200686813186813</v>
+        <v>0.0236507993300794</v>
       </c>
       <c r="N37">
-        <v>-1.21682263539963</v>
+        <v>-0.886895783797007</v>
       </c>
       <c r="O37" t="s">
         <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q37">
         <v>1863911.8</v>
